--- a/Trainings.xlsx
+++ b/Trainings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joan9\OneDrive\Escritorio\VIU-IA-TFM\PROGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joan9\OneDrive\Escritorio\VIU-IA-TFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9E2875-8852-49B4-A94E-F23753D804EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF27D3-9044-4EA8-B792-E01D8F5BC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="5715" windowWidth="38700" windowHeight="15885" tabRatio="631" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15885" tabRatio="631" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AEs" sheetId="16" r:id="rId1"/>
@@ -1357,9 +1357,36 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,46 +1396,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1693,7 +1693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41EDE4C-982F-4ED0-9035-A5BDB5E2B02B}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -1714,10 +1714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="133"/>
+      <c r="D1" s="138"/>
     </row>
     <row r="2" spans="2:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -2196,7 +2196,7 @@
         <v>330</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:F18" si="3">E16*E17</f>
+        <f t="shared" ref="E18" si="3">E16*E17</f>
         <v>35</v>
       </c>
       <c r="F18" s="1">
@@ -2275,70 +2275,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
     </row>
     <row r="2" spans="2:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="135" t="s">
+      <c r="D2" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="135" t="s">
+      <c r="G2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="139" t="s">
+      <c r="J2" s="141" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="140"/>
-      <c r="L2" s="141" t="s">
+      <c r="L2" s="139" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="140"/>
-      <c r="N2" s="139" t="s">
+      <c r="N2" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="141"/>
+      <c r="O2" s="139"/>
       <c r="P2" s="33" t="s">
         <v>69</v>
       </c>
       <c r="Q2" s="11"/>
-      <c r="R2" s="133" t="s">
+      <c r="R2" s="138" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="138"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="148"/>
       <c r="J3" s="15" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>70</v>
       </c>
       <c r="Q3" s="11"/>
-      <c r="R3" s="133"/>
+      <c r="R3" s="138"/>
     </row>
     <row r="4" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -3124,21 +3124,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
@@ -3159,23 +3159,23 @@
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
+      <c r="R26" s="135"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
@@ -3197,10 +3197,10 @@
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="149"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="136"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3270,10 +3270,10 @@
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="149"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="136"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3308,6 +3308,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="R2:R3"/>
@@ -3317,11 +3322,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3665,7 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C89C37E-6525-4F33-B1EE-E15FEF7CDD8C}">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
